--- a/methodes necessaires/modificationsImportantes.xlsx
+++ b/methodes necessaires/modificationsImportantes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AJOUTER un attribut String IMAGEPATH dans le bean membre</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>MembreManager.getMembreById(int memberid)</t>
+  </si>
+  <si>
+    <t>MessageManager.deleteMessage(Message message);</t>
+  </si>
+  <si>
+    <t>get membre by nickname(nickname)</t>
+  </si>
+  <si>
+    <t>get membre by nickname et password(nickname+password)</t>
+  </si>
+  <si>
+    <t>getClinsdoeilRecus(int TOId){</t>
+  </si>
+  <si>
+    <t>ClinsdoeilManager.deleteClindoeil(Clinsdoeil clin){</t>
   </si>
 </sst>
 </file>
@@ -394,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -456,6 +471,31 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/methodes necessaires/modificationsImportantes.xlsx
+++ b/methodes necessaires/modificationsImportantes.xlsx
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +87,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +420,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -421,7 +429,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -458,18 +466,18 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -479,17 +487,17 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -500,6 +508,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
